--- a/visualmapv2.xlsx
+++ b/visualmapv2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline Map" sheetId="1" r:id="rId1"/>
@@ -882,9 +882,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="204">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Session × Room Map </t>
     </r>
     <r>
@@ -1440,6 +1446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Session × Room Map </t>
     </r>
     <r>
@@ -1487,19 +1499,37 @@
     <t>BSAB</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>BSBA</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>BSCRIM</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>BSED/BTLED</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>BSTM</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>BSENTREP</t>
+  </si>
+  <si>
+    <t>orange</t>
   </si>
 </sst>
 </file>
@@ -4063,7 +4093,7 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -5477,8 +5507,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5504,47 +5534,47 @@
         <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/visualmapv2.xlsx
+++ b/visualmapv2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline Map" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Proposed Map'!$A$1:$T$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baseline Map'!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -882,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="212">
   <si>
     <r>
       <rPr>
@@ -905,7 +906,7 @@
     </r>
   </si>
   <si>
-    <t>Mon</t>
+    <t>Monday (September 22, 2025)</t>
   </si>
   <si>
     <t>Session</t>
@@ -932,6 +933,9 @@
     <t>NB 107</t>
   </si>
   <si>
+    <t>NB 201</t>
+  </si>
+  <si>
     <t>NB 3SR</t>
   </si>
   <si>
@@ -992,6 +996,9 @@
     <t>BSCRIM 2-7</t>
   </si>
   <si>
+    <t>BSCRIM 2-9</t>
+  </si>
+  <si>
     <t>BSTM 4-1</t>
   </si>
   <si>
@@ -1052,6 +1059,9 @@
     <t>BSCRIM 2-8</t>
   </si>
   <si>
+    <t>BSTM 4-2</t>
+  </si>
+  <si>
     <t>BSCRIM 3-2</t>
   </si>
   <si>
@@ -1133,7 +1143,7 @@
     <t>BSBA-MM 4-3</t>
   </si>
   <si>
-    <t>Tue</t>
+    <t>Tueesday (September 23, 2025)</t>
   </si>
   <si>
     <t>BSAB 1-1</t>
@@ -1145,6 +1155,9 @@
     <t>BSAB 3-1</t>
   </si>
   <si>
+    <t>BSAB 3-3</t>
+  </si>
+  <si>
     <t>BSAB 2-3</t>
   </si>
   <si>
@@ -1178,10 +1191,13 @@
     <t>BSAB 4-4</t>
   </si>
   <si>
+    <t>BSBA 4-3</t>
+  </si>
+  <si>
     <t>BSAB 1-3</t>
   </si>
   <si>
-    <t>Wed</t>
+    <t>Wednesday (September 24, 2025)</t>
   </si>
   <si>
     <t>BSBA-FM 1-1</t>
@@ -1205,6 +1221,9 @@
     <t>BSBA-HRM 3-1</t>
   </si>
   <si>
+    <t>BSBA-HRM 4-1</t>
+  </si>
+  <si>
     <t>BSBA-MM 1-1</t>
   </si>
   <si>
@@ -1250,6 +1269,9 @@
     <t>BSBA-HRM 3-2</t>
   </si>
   <si>
+    <t>BSBA-HRM 4-2</t>
+  </si>
+  <si>
     <t>BSBA-MM 1-2</t>
   </si>
   <si>
@@ -1301,6 +1323,9 @@
     <t>BSBA-FM 3-3</t>
   </si>
   <si>
+    <t>BSBA-FM 3-4</t>
+  </si>
+  <si>
     <t>BSBA-HRM 1-3</t>
   </si>
   <si>
@@ -1331,7 +1356,7 @@
     <t>BSBA-FM 4-3</t>
   </si>
   <si>
-    <t>Thu</t>
+    <t>Thursday (September 25, 2025)</t>
   </si>
   <si>
     <t>BSED-ENGLISH 1-1</t>
@@ -1355,6 +1380,9 @@
     <t>BSED-ENGLISH 4-1</t>
   </si>
   <si>
+    <t>BTLED-HE 4-1</t>
+  </si>
+  <si>
     <t>BSED-MATH 4-1</t>
   </si>
   <si>
@@ -1430,7 +1458,10 @@
     <t>BSED-SS 4-1</t>
   </si>
   <si>
-    <t>Fri</t>
+    <t>Friday (September 26, 2025)</t>
+  </si>
+  <si>
+    <t>BSAB 4-3</t>
   </si>
   <si>
     <t>BSENTREP 1-3</t>
@@ -1466,25 +1497,19 @@
     </r>
   </si>
   <si>
-    <t>BSCRIM 2-9</t>
-  </si>
-  <si>
-    <t>BSTM 4-2</t>
-  </si>
-  <si>
-    <t>BSAB 4-3</t>
-  </si>
-  <si>
-    <t>BSBA-HRM 4-1</t>
-  </si>
-  <si>
-    <t>BSBA-HRM 4-2</t>
-  </si>
-  <si>
-    <t>BSBA-FM 3-4</t>
-  </si>
-  <si>
-    <t>BSAB 3-3</t>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
   <si>
     <t>Program Colors</t>
@@ -1542,7 +1567,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,6 +1598,13 @@
       <color rgb="FF95302F"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1967,7 +1999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2017,6 +2049,21 @@
       </top>
       <bottom style="thick">
         <color rgb="FF95302F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2136,137 +2183,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2326,6 +2373,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2676,19 +2750,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:T2"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="12.6761904761905" customWidth="1"/>
+    <col min="2" max="5" width="14" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.8952380952381" style="28" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="28" customWidth="1"/>
+    <col min="8" max="8" width="15.4285714285714" style="28" customWidth="1"/>
+    <col min="9" max="9" width="17.3238095238095" style="28" customWidth="1"/>
+    <col min="10" max="11" width="14" style="28" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" style="28" customWidth="1"/>
+    <col min="13" max="13" width="14.6380952380952" style="28" customWidth="1"/>
+    <col min="14" max="14" width="16.0666666666667" style="28" customWidth="1"/>
+    <col min="15" max="15" width="15.8857142857143" style="28" customWidth="1"/>
+    <col min="16" max="17" width="15.7047619047619" style="28" customWidth="1"/>
+    <col min="18" max="18" width="16.0666666666667" style="28" customWidth="1"/>
+    <col min="19" max="19" width="16.247619047619" style="28" customWidth="1"/>
+    <col min="20" max="20" width="15.8857142857143" style="28" customWidth="1"/>
+    <col min="21" max="21" width="15.1714285714286" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
@@ -2696,1392 +2785,1549 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="22" customHeight="1" spans="1:21">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:20">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:21">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="K4" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="L4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>50</v>
+      <c r="K5" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>61</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I6" s="34"/>
       <c r="J6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="6" customHeight="1" spans="1:20">
+        <v>78</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="6" customHeight="1" spans="1:21">
       <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" ht="22" customHeight="1" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:20">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:21">
+      <c r="A8" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:21">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>32</v>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="16" t="s">
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="T12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="6" customHeight="1" spans="1:20">
+      <c r="U12" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="6" customHeight="1" spans="1:21">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:20">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:21">
+      <c r="A14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>101</v>
+        <v>33</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>33</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>31</v>
+        <v>121</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>116</v>
+        <v>33</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>131</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>133</v>
+        <v>33</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" ht="6" customHeight="1" spans="1:20">
+        <v>149</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" ht="6" customHeight="1" spans="1:21">
       <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:20">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+    </row>
+    <row r="20" s="27" customFormat="1" ht="22" customHeight="1" spans="1:21">
+      <c r="A20" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:21">
       <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" ht="30" spans="1:20">
+      <c r="U21" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:21">
       <c r="A22" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:21">
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="P24" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="Q24" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="R24" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="S24" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="T24" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="U24" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="T22" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="1:20">
-      <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="R23" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="S23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="S24" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" ht="6" customHeight="1" spans="1:20">
+    </row>
+    <row r="25" ht="6" customHeight="1" spans="1:21">
       <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="26" ht="22" customHeight="1" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:20">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:21">
+      <c r="A26" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:21">
       <c r="A27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="S27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" ht="30" spans="1:20">
+      <c r="U27" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:21">
       <c r="A28" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" ht="30" spans="1:20">
+        <v>169</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:21">
       <c r="A29" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>31</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I29" s="34"/>
       <c r="J29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>169</v>
+        <v>33</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="21" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>31</v>
+        <v>183</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="T29" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>33</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="T30" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="6" customHeight="1" spans="1:20">
+        <v>68</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" ht="6" customHeight="1" spans="1:21">
       <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A14:U14"/>
+    <mergeCell ref="A20:U20"/>
+    <mergeCell ref="A26:U26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4108,12 +4354,12 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:20">
@@ -4142,226 +4388,226 @@
         <v>9</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:20">
@@ -4388,7 +4634,7 @@
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:20">
@@ -4417,226 +4663,226 @@
         <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:20">
@@ -4663,7 +4909,7 @@
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:1">
       <c r="A14" s="10" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:20">
@@ -4692,226 +4938,226 @@
         <v>9</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:20">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="L16" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="M16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:20">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>186</v>
-      </c>
       <c r="D17" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H17" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="T17" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:20">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:20">
@@ -4938,7 +5184,7 @@
     </row>
     <row r="20" ht="22" customHeight="1" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:20">
@@ -4967,226 +5213,226 @@
         <v>9</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:20">
       <c r="A22" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:20">
       <c r="A23" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="T23" s="22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:20">
       <c r="A24" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="6" customHeight="1" spans="1:20">
@@ -5213,7 +5459,7 @@
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:20">
@@ -5242,226 +5488,226 @@
         <v>9</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="31.5" spans="1:20">
       <c r="A28" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:20">
       <c r="A29" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="R29" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S29" s="22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="T29" s="22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:20">
       <c r="A30" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="S30" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" ht="6" customHeight="1" spans="1:20">
@@ -5507,7 +5753,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -5518,67 +5764,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/visualmapv2.xlsx
+++ b/visualmapv2.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="13395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline Map" sheetId="1" r:id="rId1"/>
     <sheet name="Proposed Map" sheetId="2" r:id="rId2"/>
     <sheet name="Legend" sheetId="3" r:id="rId3"/>
+    <sheet name="Exam Schedule Map" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baseline Map'!$A$1:$U$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Proposed Map'!$A$1:$T$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baseline Map'!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -883,27 +884,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="212">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Session × Room Map </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[EXISTING SCHEDULE]</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="217">
+  <si>
+    <t>Session × Room Map [EXISTING SCHEDULE]</t>
   </si>
   <si>
     <t>Monday (September 22, 2025)</t>
@@ -1476,25 +1459,7 @@
     <t>BSENTREP 4-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Session × Room Map </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[PROPOSED SCHEDULE]</t>
-    </r>
+    <t>Session × Room Map [PROPOSED SCHEDULE]</t>
   </si>
   <si>
     <t>Mon</t>
@@ -1555,6 +1520,21 @@
   </si>
   <si>
     <t>orange</t>
+  </si>
+  <si>
+    <t>Monday (October 6, 2025)</t>
+  </si>
+  <si>
+    <t>Tuesday (October 7, 2025) - Exam Day 1</t>
+  </si>
+  <si>
+    <t>Wednesday (October 8, 2025) - Exam Day 2</t>
+  </si>
+  <si>
+    <t>Thursday (October 9, 2025) - Exam Day 3</t>
+  </si>
+  <si>
+    <t>Friday (October 10, 2025) - Regular F2F (BSED) - End of Term</t>
   </si>
 </sst>
 </file>
@@ -1567,13 +1547,19 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1588,23 +1574,10 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF95302F"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1751,60 +1724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1820,7 +1750,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor rgb="FFE4DFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,6 +2017,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2019,21 +2042,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2168,238 +2176,255 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2752,8 +2777,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2763,1559 +2788,1459 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6761904761905" customWidth="1"/>
-    <col min="2" max="5" width="14" style="28" customWidth="1"/>
-    <col min="6" max="6" width="15.8952380952381" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" style="28" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" style="28" customWidth="1"/>
-    <col min="9" max="9" width="17.3238095238095" style="28" customWidth="1"/>
-    <col min="10" max="11" width="14" style="28" customWidth="1"/>
-    <col min="12" max="12" width="16.4285714285714" style="28" customWidth="1"/>
-    <col min="13" max="13" width="14.6380952380952" style="28" customWidth="1"/>
-    <col min="14" max="14" width="16.0666666666667" style="28" customWidth="1"/>
-    <col min="15" max="15" width="15.8857142857143" style="28" customWidth="1"/>
-    <col min="16" max="17" width="15.7047619047619" style="28" customWidth="1"/>
-    <col min="18" max="18" width="16.0666666666667" style="28" customWidth="1"/>
-    <col min="19" max="19" width="16.247619047619" style="28" customWidth="1"/>
-    <col min="20" max="20" width="15.8857142857143" style="28" customWidth="1"/>
-    <col min="21" max="21" width="15.1714285714286" style="28" customWidth="1"/>
+    <col min="2" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8952380952381" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.3238095238095" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.6380952380952" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.8857142857143" style="2" customWidth="1"/>
+    <col min="16" max="17" width="15.7047619047619" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.247619047619" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.8857142857143" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.1714285714286" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:21">
-      <c r="A2" s="29" t="s">
+    <row r="2" ht="22" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:21">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:21">
-      <c r="A7" s="15"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-    </row>
-    <row r="8" ht="22" customHeight="1" spans="1:21">
-      <c r="A8" s="29" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:21">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:21">
-      <c r="A13" s="15"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:21">
-      <c r="A14" s="29" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:21">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="31" t="s">
+      <c r="Q15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="31" t="s">
+      <c r="R15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="T17" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:21">
-      <c r="A19" s="15"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" s="27" customFormat="1" ht="22" customHeight="1" spans="1:21">
-      <c r="A20" s="29" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="S21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="31" t="s">
+      <c r="T21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="U21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="1:21">
-      <c r="A22" s="12" t="s">
+    <row r="22" ht="30" customHeight="1" spans="1:21">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:21">
-      <c r="A23" s="12" t="s">
+    <row r="23" ht="30" customHeight="1" spans="1:21">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="24" t="s">
+      <c r="I23" s="42"/>
+      <c r="J23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S23" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="T23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="U24" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="6" customHeight="1" spans="1:21">
-      <c r="A25" s="15"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" ht="22" customHeight="1" spans="1:21">
-      <c r="A26" s="29" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:21">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="31" t="s">
+      <c r="Q27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="31" t="s">
+      <c r="R27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="S27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="31" t="s">
+      <c r="T27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="31" t="s">
+      <c r="U27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" ht="30" spans="1:21">
-      <c r="A28" s="12" t="s">
+    <row r="28" ht="30" customHeight="1" spans="1:21">
+      <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="Q28" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="S28" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="21" t="s">
+      <c r="U28" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" ht="30" spans="1:21">
-      <c r="A29" s="12" t="s">
+    <row r="29" ht="30" customHeight="1" spans="1:21">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="24" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="21" t="s">
+      <c r="S29" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="24" t="s">
+      <c r="T29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="24" t="s">
+      <c r="U29" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="14" t="s">
+      <c r="U30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" ht="6" customHeight="1" spans="1:21">
-      <c r="A31" s="15"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4353,1384 +4278,1384 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="32" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:20">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:20">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:20">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:20">
-      <c r="A6" s="12" t="s">
+    <row r="6" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:20">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:20">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:20">
-      <c r="A10" s="12" t="s">
+    <row r="10" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:20">
-      <c r="A11" s="12" t="s">
+    <row r="11" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:20">
-      <c r="A12" s="12" t="s">
+    <row r="12" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:20">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="32" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:20">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:20">
-      <c r="A16" s="12" t="s">
+    <row r="16" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:20">
-      <c r="A17" s="12" t="s">
+    <row r="17" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="22" t="s">
+      <c r="Q17" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:20">
-      <c r="A18" s="12" t="s">
+    <row r="18" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:20">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" ht="22" customHeight="1" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="32" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:20">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="31.5" spans="1:20">
-      <c r="A22" s="12" t="s">
+    <row r="22" ht="31.5" customHeight="1" spans="1:20">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" ht="31.5" spans="1:20">
-      <c r="A23" s="12" t="s">
+    <row r="23" ht="31.5" customHeight="1" spans="1:20">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="S23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:20">
-      <c r="A24" s="12" t="s">
+    <row r="24" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="6" customHeight="1" spans="1:20">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="32" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:20">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="S27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" ht="31.5" spans="1:20">
-      <c r="A28" s="12" t="s">
+    <row r="28" ht="31.5" customHeight="1" spans="1:20">
+      <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="Q28" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="S28" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" ht="31.5" spans="1:20">
-      <c r="A29" s="12" t="s">
+    <row r="29" ht="31.5" customHeight="1" spans="1:20">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="22" t="s">
+      <c r="R29" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="S29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="T29" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:20">
-      <c r="A30" s="12" t="s">
+    <row r="30" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" ht="6" customHeight="1" spans="1:20">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5754,7 +5679,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A1" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5763,63 +5688,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="27" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="28" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="29" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="31" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5828,4 +5753,1483 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.6761904761905" customWidth="1"/>
+    <col min="2" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8952380952381" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.3238095238095" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.6380952380952" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.8857142857143" style="2" customWidth="1"/>
+    <col min="16" max="17" width="15.7047619047619" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.247619047619" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.8857142857143" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.1714285714286" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:21">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="6" customHeight="1" spans="1:21">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:21">
+      <c r="A8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:21">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" ht="6" customHeight="1" spans="1:21">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:21">
+      <c r="A14" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:21">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="6" customHeight="1" spans="1:21">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:21">
+      <c r="A20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:21">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:21">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:21">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="21"/>
+      <c r="P23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" ht="6" customHeight="1"/>
+    <row r="26" ht="22" customHeight="1" spans="1:21">
+      <c r="A26" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:21">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:21">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:21">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="P29" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" ht="6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A14:U14"/>
+    <mergeCell ref="A20:U20"/>
+    <mergeCell ref="A26:U26"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/visualmapv2.xlsx
+++ b/visualmapv2.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13395" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline Map" sheetId="1" r:id="rId1"/>
     <sheet name="Proposed Map" sheetId="2" r:id="rId2"/>
     <sheet name="Legend" sheetId="3" r:id="rId3"/>
-    <sheet name="Exam Schedule Map" sheetId="4" r:id="rId4"/>
+    <sheet name="examschedule map" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Baseline Map'!$A$1:$U$30</definedName>
@@ -884,7 +885,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="217">
   <si>
     <t>Session × Room Map [EXISTING SCHEDULE]</t>
   </si>
@@ -1525,16 +1526,16 @@
     <t>Monday (October 6, 2025)</t>
   </si>
   <si>
-    <t>Tuesday (October 7, 2025) - Exam Day 1</t>
-  </si>
-  <si>
-    <t>Wednesday (October 8, 2025) - Exam Day 2</t>
-  </si>
-  <si>
-    <t>Thursday (October 9, 2025) - Exam Day 3</t>
-  </si>
-  <si>
-    <t>Friday (October 10, 2025) - Regular F2F (BSED) - End of Term</t>
+    <t>Tuesday (October 7, 2025)</t>
+  </si>
+  <si>
+    <t>Wednesday (October 8, 2025)</t>
+  </si>
+  <si>
+    <t>Thursday (October 9, 2025)</t>
+  </si>
+  <si>
+    <t>Friday (October 10, 2025) - End of Term</t>
   </si>
 </sst>
 </file>
@@ -1547,13 +1548,19 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1729,7 +1736,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,50 +1775,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor rgb="FFE4DFEC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1823,6 +1788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,6 +2003,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2057,21 +2043,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF95302F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2191,16 +2162,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -2209,46 +2177,67 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
@@ -2257,10 +2246,10 @@
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
@@ -2269,10 +2258,10 @@
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
@@ -2281,10 +2270,10 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0">
@@ -2293,138 +2282,116 @@
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2788,1459 +2755,1459 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6761904761905" customWidth="1"/>
-    <col min="2" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.8952380952381" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.3238095238095" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.4285714285714" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.6380952380952" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.0666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.8857142857143" style="2" customWidth="1"/>
-    <col min="16" max="17" width="15.7047619047619" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.0666666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.247619047619" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.8857142857143" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.1714285714286" style="2" customWidth="1"/>
+    <col min="2" max="5" width="14" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.8952380952381" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.4285714285714" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.3238095238095" style="7" customWidth="1"/>
+    <col min="10" max="11" width="14" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.6380952380952" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.0666666666667" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.8857142857143" style="7" customWidth="1"/>
+    <col min="16" max="17" width="15.7047619047619" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.0666666666667" style="7" customWidth="1"/>
+    <col min="19" max="19" width="16.247619047619" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.8857142857143" style="7" customWidth="1"/>
+    <col min="21" max="21" width="15.1714285714286" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:21">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:21">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="33" t="s">
+      <c r="U11" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:21">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="Q16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="S16" s="40" t="s">
+      <c r="S16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="40" t="s">
+      <c r="Q17" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="S17" s="40" t="s">
+      <c r="S17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="33" t="s">
+      <c r="U17" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="P18" s="22" t="s">
+      <c r="P18" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="U18" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:21">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="22" customHeight="1" spans="1:1">
+      <c r="A20" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:21">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="S22" s="37" t="s">
+      <c r="S22" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="37" t="s">
+      <c r="U22" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:21">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="40"/>
+      <c r="J23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="S23" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="22" t="s">
+      <c r="Q24" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="22" t="s">
+      <c r="R24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="T24" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="22" t="s">
+      <c r="U24" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="6" customHeight="1" spans="1:21">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:21">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="U27" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:21">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="37" t="s">
+      <c r="U28" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:21">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="37" t="s">
+      <c r="R29" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="37" t="s">
+      <c r="S29" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="21" t="s">
+      <c r="U29" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="40" t="s">
+      <c r="L30" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="U30" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" ht="6" customHeight="1" spans="1:21">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4278,399 +4245,399 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:20">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:20">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:20">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="35" t="s">
@@ -4687,58 +4654,58 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="39" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="35" t="s">
@@ -4749,158 +4716,158 @@
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>186</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:20">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:20">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -4921,31 +4888,31 @@
       <c r="G16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>82</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="23" t="s">
         <v>112</v>
       </c>
       <c r="Q16" s="35" t="s">
@@ -4962,7 +4929,7 @@
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -4980,40 +4947,40 @@
       <c r="F17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="23" t="s">
         <v>130</v>
       </c>
       <c r="S17" s="35" t="s">
@@ -5024,28 +4991,28 @@
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>139</v>
       </c>
       <c r="I18" s="35" t="s">
@@ -5054,273 +5021,273 @@
       <c r="J18" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="22" t="s">
+      <c r="P18" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:20">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
     </row>
     <row r="20" ht="22" customHeight="1" spans="1:1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:20">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1" spans="1:20">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="20" t="s">
         <v>163</v>
       </c>
       <c r="N22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="S22" s="37" t="s">
+      <c r="S22" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1" spans="1:20">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>131</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="20" t="s">
         <v>180</v>
       </c>
       <c r="N23" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="38" t="s">
+      <c r="T23" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>139</v>
       </c>
       <c r="I24" s="35" t="s">
@@ -5329,333 +5296,333 @@
       <c r="J24" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="Q24" s="22" t="s">
+      <c r="Q24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="22" t="s">
+      <c r="R24" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="T24" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="6" customHeight="1" spans="1:20">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:20">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="31.5" customHeight="1" spans="1:20">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="20" t="s">
         <v>163</v>
       </c>
       <c r="N28" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" ht="31.5" customHeight="1" spans="1:20">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="20" t="s">
         <v>180</v>
       </c>
       <c r="N29" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O29" s="37" t="s">
+      <c r="O29" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="R29" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S29" s="38" t="s">
+      <c r="S29" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="T29" s="38" t="s">
+      <c r="T29" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:20">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="39" t="s">
         <v>33</v>
       </c>
       <c r="K30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" ht="6" customHeight="1" spans="1:20">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5688,63 +5655,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5763,599 +5730,579 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6761904761905" customWidth="1"/>
-    <col min="2" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.8952380952381" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4285714285714" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.3238095238095" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.4285714285714" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.6380952380952" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.0666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.8857142857143" style="2" customWidth="1"/>
-    <col min="16" max="17" width="15.7047619047619" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.0666666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.247619047619" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.8857142857143" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.1714285714286" style="2" customWidth="1"/>
+    <col min="2" max="5" width="14" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.8952380952381" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.4285714285714" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.3238095238095" style="7" customWidth="1"/>
+    <col min="10" max="11" width="14" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.6380952380952" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.0666666666667" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.8857142857143" style="7" customWidth="1"/>
+    <col min="16" max="17" width="15.7047619047619" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.0666666666667" style="7" customWidth="1"/>
+    <col min="19" max="19" width="16.247619047619" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.8857142857143" style="7" customWidth="1"/>
+    <col min="21" max="21" width="15.1714285714286" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:21">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="6" customHeight="1" spans="1:21">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" ht="22" customHeight="1" spans="1:21">
-      <c r="A8" s="12" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:1">
+      <c r="A8" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="19" t="s">
         <v>79</v>
       </c>
       <c r="U12" s="23" t="s">
@@ -6363,160 +6310,140 @@
       </c>
     </row>
     <row r="13" ht="6" customHeight="1" spans="1:21">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:21">
-      <c r="A14" s="12" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:1">
+      <c r="A14" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="19" t="s">
         <v>110</v>
       </c>
       <c r="P16" s="23" t="s">
@@ -6531,49 +6458,49 @@
       <c r="S16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="16" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="19" t="s">
         <v>126</v>
       </c>
       <c r="P17" s="23" t="s">
@@ -6588,327 +6515,295 @@
       <c r="S17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
     </row>
     <row r="19" ht="6" customHeight="1" spans="1:21">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:21">
-      <c r="A20" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="22" customHeight="1" spans="1:1">
+      <c r="A20" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:21">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:21">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="18" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="18" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="19" t="s">
         <v>140</v>
       </c>
       <c r="J24" s="23" t="s">
@@ -6917,274 +6812,290 @@
       <c r="K24" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U24" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" ht="6" customHeight="1"/>
-    <row r="26" ht="22" customHeight="1" spans="1:21">
-      <c r="A26" s="19" t="s">
+    <row r="25" ht="6" customHeight="1" spans="1:21">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:1">
+      <c r="A26" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:21">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="U27" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:21">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="18" t="s">
+      <c r="K28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="18" t="s">
+      <c r="T28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="U28" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:21">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="18" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="18" t="s">
+      <c r="O29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="18" t="s">
+      <c r="S29" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
+      <c r="T29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="17" t="s">
+      <c r="J30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>70</v>
       </c>
       <c r="L30" s="23" t="s">
@@ -7199,26 +7110,48 @@
       <c r="O30" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" ht="6" customHeight="1"/>
+    <row r="31" ht="6" customHeight="1" spans="1:21">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:U1"/>
@@ -7232,4 +7165,840 @@
   <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.1428571428571" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A165">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>